--- a/ADSDataDirect.Web/Templates/Tracking2.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr updateLinks="never" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECTS\ADSDataDirect\WFP.ICT.Web\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NET_PROJECTS\ADSDataDirect\ADSDataDirect.Web\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -92,9 +92,6 @@
     <t>Unsub to opens Rate</t>
   </si>
   <si>
-    <t>Match link:</t>
-  </si>
-  <si>
     <t>Come Check Us Out!</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Data Files:</t>
   </si>
 </sst>
 </file>
@@ -295,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -342,12 +342,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -375,35 +399,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,13 +468,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>560069</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -477,7 +482,7 @@
         <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8D8E01-52D6-4552-90F5-7E14FF82D50B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2B8D8E01-52D6-4552-90F5-7E14FF82D50B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -532,13 +537,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>560069</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>3809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -546,7 +551,7 @@
         <xdr:cNvPr id="4" name="Rectangle: Rounded Corners 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{830D2B11-B885-4748-BF82-F6A1BC0361D3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{830D2B11-B885-4748-BF82-F6A1BC0361D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -601,13 +606,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>24</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>560069</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>3809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -615,7 +620,7 @@
         <xdr:cNvPr id="5" name="Rectangle: Rounded Corners 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2582499-01B3-4264-A993-E41A3C243862}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D2582499-01B3-4264-A993-E41A3C243862}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -672,13 +677,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>560069</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>3809</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -686,7 +691,7 @@
         <xdr:cNvPr id="6" name="Rectangle: Rounded Corners 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DEC9363-4D1E-4C25-8AE0-EA8326035CE8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DEC9363-4D1E-4C25-8AE0-EA8326035CE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,21 +748,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>3809</xdr:rowOff>
+      <xdr:rowOff>175259</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Rectangle: Rounded Corners 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB98D1C2-0B84-4BCB-AA6D-04F481956B4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FB98D1C2-0B84-4BCB-AA6D-04F481956B4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -765,7 +770,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="3428999"/>
+          <a:off x="9525" y="3724274"/>
           <a:ext cx="1162050" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -812,13 +817,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -826,7 +831,7 @@
         <xdr:cNvPr id="10" name="Straight Connector 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32BD8CDA-0035-4364-8F4F-115168066B77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32BD8CDA-0035-4364-8F4F-115168066B77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,13 +874,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -883,7 +888,7 @@
         <xdr:cNvPr id="13" name="Straight Connector 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C91E5B4-61C0-4251-84B4-D4BF7E23FDFF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0C91E5B4-61C0-4251-84B4-D4BF7E23FDFF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -926,13 +931,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -940,7 +945,7 @@
         <xdr:cNvPr id="14" name="Straight Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45D48F55-A001-485C-B7F8-4153A1CC0178}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{45D48F55-A001-485C-B7F8-4153A1CC0178}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,13 +988,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -997,7 +1002,7 @@
         <xdr:cNvPr id="15" name="Straight Connector 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0112EFA-085C-4A85-AEB6-0B89CEB7245F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F0112EFA-085C-4A85-AEB6-0B89CEB7245F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1397,36 +1402,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
+      <c r="A1" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -1445,61 +1450,61 @@
     </row>
     <row r="4" spans="1:13" ht="31.5" x14ac:dyDescent="0.5">
       <c r="D4" s="12"/>
-      <c r="H4" s="24"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="5"/>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="5"/>
-      <c r="L4" s="29">
+      <c r="L4" s="37">
         <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H5" s="24"/>
+      <c r="H5" s="33"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="32"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="29"/>
+      <c r="L5" s="37"/>
     </row>
     <row r="6" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="44"/>
       <c r="C7" s="16">
         <v>42951</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="24"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="7"/>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="41" t="s">
         <v>4</v>
       </c>
       <c r="K7" s="7"/>
-      <c r="L7" s="28">
+      <c r="L7" s="36">
         <v>0.1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="24"/>
+      <c r="H8" s="33"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="33"/>
+      <c r="J8" s="41"/>
       <c r="K8" s="7"/>
-      <c r="L8" s="28"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
@@ -1508,40 +1513,40 @@
       <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="36"/>
+      <c r="H10" s="43"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="42" t="s">
         <v>5</v>
       </c>
       <c r="K10" s="8"/>
-      <c r="L10" s="31">
+      <c r="L10" s="39">
         <v>0.02</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="36"/>
+      <c r="H11" s="43"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="34"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="8"/>
-      <c r="L11" s="31"/>
+      <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="13"/>
@@ -1549,176 +1554,221 @@
       <c r="H12" s="6"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="22"/>
+    <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="44"/>
       <c r="C13" s="17"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="36"/>
+      <c r="H13" s="46"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="27" t="s">
+      <c r="J13" s="35" t="s">
         <v>6</v>
       </c>
       <c r="K13" s="9"/>
-      <c r="L13" s="30">
+      <c r="L13" s="38">
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="22"/>
+      <c r="A14" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="44"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
       <c r="E14" s="23"/>
       <c r="F14" s="23"/>
       <c r="G14" s="23"/>
-      <c r="H14" s="36"/>
+      <c r="H14" s="23"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="27"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="30"/>
-    </row>
-    <row r="15" spans="1:13" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="23"/>
+      <c r="L14" s="38"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="44" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="23"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23"/>
     </row>
     <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="22"/>
-    </row>
-    <row r="17" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+    </row>
+    <row r="19" spans="1:12" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="35">
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="32">
         <v>100000</v>
       </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="39"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="39"/>
-      <c r="L19" s="25"/>
-    </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="D20" s="32"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="39"/>
-      <c r="H20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="H20" s="26"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="39"/>
-      <c r="L20" s="25"/>
-    </row>
-    <row r="22" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="40">
+      <c r="J20" s="25"/>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="25"/>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="24">
         <v>0.1</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="39" t="s">
+      <c r="D23" s="29"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="H22" s="35">
+      <c r="H23" s="32">
         <v>10000</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="39"/>
-      <c r="H23" s="35"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="40">
+    <row r="24" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="25"/>
+      <c r="H24" s="32"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="24">
         <v>0.02</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="39" t="s">
+      <c r="D26" s="29"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="35">
+      <c r="H26" s="32">
         <v>2000</v>
       </c>
-      <c r="J25" s="42" t="s">
+      <c r="J26" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L26" s="31">
         <v>0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="39"/>
-      <c r="H26" s="35"/>
-      <c r="J26" s="42"/>
-      <c r="L26" s="43"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="26"/>
-      <c r="E28" s="4"/>
+    <row r="27" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="25"/>
+      <c r="H27" s="32"/>
+      <c r="J27" s="30"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
     </row>
     <row r="29" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
+      <c r="C29" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="34"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="40">
+    <row r="30" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="24">
         <v>0</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="39" t="s">
+      <c r="D32" s="29"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="H31" s="25" t="s">
+      <c r="H32" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="J31" s="44" t="s">
+      <c r="J32" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="40">
-        <f>H31/H22</f>
+      <c r="L32" s="24">
+        <f>H32/H23</f>
         <v>2.5000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="39"/>
-      <c r="H32" s="25"/>
-      <c r="J32" s="44"/>
-      <c r="L32" s="40"/>
+    <row r="33" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="J33" s="47"/>
+      <c r="L33" s="24"/>
     </row>
     <row r="35" spans="1:12" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
@@ -1751,7 +1801,7 @@
       <c r="J36" s="23"/>
       <c r="K36" s="23"/>
       <c r="L36" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,7 +1817,7 @@
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
       <c r="L37" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1783,7 +1833,7 @@
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
       <c r="L38" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1799,7 +1849,7 @@
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
       <c r="L39" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1815,7 +1865,7 @@
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
       <c r="L40" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1831,7 +1881,7 @@
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
       <c r="L41" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1847,7 +1897,7 @@
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
       <c r="L42" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1863,7 +1913,7 @@
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1879,7 +1929,7 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1895,7 +1945,7 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1911,7 +1961,7 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1927,7 +1977,7 @@
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1943,7 +1993,7 @@
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
       <c r="L48" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1959,7 +2009,7 @@
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,7 +2025,7 @@
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
       <c r="L50" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -1991,7 +2041,7 @@
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2007,7 +2057,7 @@
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
       <c r="L52" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2073,7 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2039,7 +2089,7 @@
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
       <c r="L54" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2055,7 +2105,7 @@
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2071,7 +2121,7 @@
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
       <c r="L56" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2087,7 +2137,7 @@
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2103,7 +2153,7 @@
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
       <c r="L58" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2119,7 +2169,7 @@
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
@@ -2129,52 +2179,24 @@
       <c r="L61" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
-    <mergeCell ref="A55:K55"/>
-    <mergeCell ref="A56:K56"/>
-    <mergeCell ref="A57:K57"/>
-    <mergeCell ref="A58:K58"/>
-    <mergeCell ref="A59:K59"/>
-    <mergeCell ref="A50:K50"/>
-    <mergeCell ref="A51:K51"/>
-    <mergeCell ref="A52:K52"/>
-    <mergeCell ref="A53:K53"/>
-    <mergeCell ref="A54:K54"/>
-    <mergeCell ref="A45:K45"/>
-    <mergeCell ref="A46:K46"/>
-    <mergeCell ref="A47:K47"/>
-    <mergeCell ref="A48:K48"/>
-    <mergeCell ref="A49:K49"/>
-    <mergeCell ref="A40:K40"/>
-    <mergeCell ref="A41:K41"/>
-    <mergeCell ref="A42:K42"/>
-    <mergeCell ref="A43:K43"/>
-    <mergeCell ref="A44:K44"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="A37:K37"/>
-    <mergeCell ref="A38:K38"/>
-    <mergeCell ref="A39:K39"/>
-    <mergeCell ref="A1:M2"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="L25:L26"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="C25:D26"/>
+  <mergeCells count="68">
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="H7:H8"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="C28:D29"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="C29:D30"/>
     <mergeCell ref="J13:J14"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="L4:L5"/>
@@ -2183,17 +2205,49 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H26:H27"/>
     <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C14:G15"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A37:K37"/>
+    <mergeCell ref="A38:K38"/>
+    <mergeCell ref="A39:K39"/>
+    <mergeCell ref="A1:M2"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="C32:D33"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C26:D27"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="A40:K40"/>
+    <mergeCell ref="A41:K41"/>
+    <mergeCell ref="A42:K42"/>
+    <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A44:K44"/>
+    <mergeCell ref="A45:K45"/>
+    <mergeCell ref="A46:K46"/>
+    <mergeCell ref="A47:K47"/>
+    <mergeCell ref="A48:K48"/>
+    <mergeCell ref="A49:K49"/>
+    <mergeCell ref="A50:K50"/>
+    <mergeCell ref="A51:K51"/>
+    <mergeCell ref="A52:K52"/>
+    <mergeCell ref="A53:K53"/>
+    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="A55:K55"/>
+    <mergeCell ref="A56:K56"/>
+    <mergeCell ref="A57:K57"/>
+    <mergeCell ref="A58:K58"/>
+    <mergeCell ref="A59:K59"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/ADSDataDirect.Web/Templates/Tracking2.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="33">
   <si>
     <t>URLS</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Delivered</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kia of Tallahasse </t>
   </si>
   <si>
@@ -67,9 +64,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Send Performance</t>
-  </si>
-  <si>
-    <t>Delivery Rate</t>
   </si>
   <si>
     <t>Deployed</t>
@@ -882,17 +876,44 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
@@ -900,6 +921,18 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
@@ -908,45 +941,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1014,7 +1008,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1026,7 +1020,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1064,7 +1058,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1076,7 +1070,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1114,7 +1108,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1126,7 +1120,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1438,7 +1432,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1539,37 +1533,37 @@
       <c r="G6" s="57"/>
       <c r="I6" s="7"/>
       <c r="J6" s="76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="16" customFormat="1" ht="21.9" customHeight="1">
+      <c r="A7" s="77" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="77"/>
+      <c r="C7" s="77"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.25" customHeight="1">
+      <c r="A8" s="86" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="16" customFormat="1" ht="21.9" customHeight="1">
-      <c r="A7" s="95" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-    </row>
-    <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="90" t="s">
+      <c r="B8" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="49" t="s">
         <v>11</v>
-      </c>
-      <c r="B8" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="92"/>
-      <c r="H8" s="49" t="s">
-        <v>12</v>
       </c>
       <c r="I8" s="50"/>
       <c r="J8" s="51">
@@ -1577,15 +1571,15 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A9" s="91"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="93"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="93"/>
-      <c r="G9" s="93"/>
+      <c r="A9" s="87"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
       <c r="H9" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="50"/>
       <c r="J9" s="52">
@@ -1593,15 +1587,15 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A10" s="91"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="93"/>
-      <c r="G10" s="93"/>
+      <c r="A10" s="87"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
       <c r="H10" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="50"/>
       <c r="J10" s="52">
@@ -1609,18 +1603,18 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.8">
-      <c r="A11" s="97" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
+      <c r="A11" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
@@ -1636,14 +1630,14 @@
     </row>
     <row r="13" spans="1:10" ht="35.1" customHeight="1">
       <c r="A13" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="19"/>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
       <c r="E13" s="3"/>
       <c r="F13" s="45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G13" s="34"/>
       <c r="H13" s="34"/>
@@ -1652,20 +1646,16 @@
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="20"/>
-      <c r="B14" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="22">
-        <v>0.98360000000000003</v>
-      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="3"/>
       <c r="F14" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="36"/>
       <c r="H14" s="37" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I14" s="38"/>
       <c r="J14" s="46"/>
@@ -1673,7 +1663,7 @@
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="23">
         <v>100000</v>
@@ -1681,23 +1671,19 @@
       <c r="D15" s="23"/>
       <c r="E15" s="3"/>
       <c r="F15" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G15" s="23"/>
       <c r="H15" s="40" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I15" s="41"/>
       <c r="J15" s="46"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
-      <c r="B16" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="23">
-        <v>98360</v>
-      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="23"/>
       <c r="E16" s="3"/>
       <c r="F16" s="19"/>
@@ -1707,8 +1693,8 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="96"/>
-      <c r="B17" s="96"/>
+      <c r="A17" s="79"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3"/>
@@ -1719,8 +1705,8 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="96"/>
-      <c r="B18" s="96"/>
+      <c r="A18" s="79"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="3"/>
@@ -1744,7 +1730,7 @@
     </row>
     <row r="20" spans="1:10" ht="31.2">
       <c r="A20" s="45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="19"/>
@@ -1771,7 +1757,7 @@
     <row r="22" spans="1:10" ht="31.2">
       <c r="A22" s="19"/>
       <c r="B22" s="27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="28">
         <v>0.17513000000000001</v>
@@ -1787,7 +1773,7 @@
     <row r="23" spans="1:10" ht="31.2">
       <c r="A23" s="19"/>
       <c r="B23" s="21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C23" s="23">
         <v>17513</v>
@@ -1844,13 +1830,13 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27" s="31" t="s">
         <v>21</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="31" t="s">
-        <v>23</v>
       </c>
       <c r="D27" s="31"/>
       <c r="E27" s="3"/>
@@ -1890,10 +1876,10 @@
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A30" s="56" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="56" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="56"/>
@@ -1941,8 +1927,8 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="94" t="s">
-        <v>24</v>
+      <c r="A34" s="78" t="s">
+        <v>22</v>
       </c>
       <c r="B34" s="26"/>
       <c r="C34" s="19"/>
@@ -1955,7 +1941,7 @@
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="94"/>
+      <c r="A35" s="78"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1981,7 +1967,7 @@
     <row r="37" spans="1:10" ht="21">
       <c r="A37" s="19"/>
       <c r="B37" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" s="32">
         <v>1340</v>
@@ -1997,7 +1983,7 @@
     <row r="38" spans="1:10" ht="21">
       <c r="A38" s="19"/>
       <c r="B38" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C38" s="33">
         <v>1279</v>
@@ -2156,7 +2142,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="58" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2417,23 +2403,23 @@
       <c r="F72" s="7"/>
       <c r="I72" s="7"/>
       <c r="J72" s="76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="21">
+      <c r="A73" s="86" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="90" t="s">
+      <c r="B73" s="88" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="88"/>
+      <c r="D73" s="88"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="49" t="s">
         <v>11</v>
-      </c>
-      <c r="B73" s="92" t="s">
-        <v>5</v>
-      </c>
-      <c r="C73" s="92"/>
-      <c r="D73" s="92"/>
-      <c r="E73" s="92"/>
-      <c r="F73" s="92"/>
-      <c r="G73" s="92"/>
-      <c r="H73" s="49" t="s">
-        <v>12</v>
       </c>
       <c r="I73" s="50"/>
       <c r="J73" s="51">
@@ -2441,15 +2427,15 @@
       </c>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="91"/>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
-      <c r="D74" s="93"/>
-      <c r="E74" s="93"/>
-      <c r="F74" s="93"/>
-      <c r="G74" s="93"/>
+      <c r="A74" s="87"/>
+      <c r="B74" s="89"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="89"/>
+      <c r="E74" s="89"/>
+      <c r="F74" s="89"/>
+      <c r="G74" s="89"/>
       <c r="H74" s="49" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I74" s="50"/>
       <c r="J74" s="52">
@@ -2457,15 +2443,15 @@
       </c>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="91"/>
-      <c r="B75" s="93"/>
-      <c r="C75" s="93"/>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="93"/>
-      <c r="G75" s="93"/>
+      <c r="A75" s="87"/>
+      <c r="B75" s="89"/>
+      <c r="C75" s="89"/>
+      <c r="D75" s="89"/>
+      <c r="E75" s="89"/>
+      <c r="F75" s="89"/>
+      <c r="G75" s="89"/>
       <c r="H75" s="49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I75" s="50"/>
       <c r="J75" s="52">
@@ -2486,7 +2472,7 @@
     </row>
     <row r="77" spans="1:10" ht="15" customHeight="1">
       <c r="A77" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -2523,15 +2509,15 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="23.4">
-      <c r="A80" s="88" t="s">
+      <c r="A80" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="88"/>
-      <c r="C80" s="88"/>
-      <c r="D80" s="88"/>
-      <c r="E80" s="89"/>
+      <c r="B80" s="92"/>
+      <c r="C80" s="92"/>
+      <c r="D80" s="92"/>
+      <c r="E80" s="93"/>
       <c r="F80" s="66" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G80" s="67" t="s">
         <v>1</v>
@@ -2557,523 +2543,529 @@
       <c r="J81" s="63"/>
     </row>
     <row r="82" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A82" s="86"/>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87"/>
+      <c r="A82" s="94"/>
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="95"/>
+      <c r="E82" s="95"/>
       <c r="F82" s="68"/>
       <c r="G82" s="68"/>
       <c r="H82" s="68"/>
       <c r="I82" s="69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A83" s="77"/>
-      <c r="B83" s="78"/>
-      <c r="C83" s="78"/>
-      <c r="D83" s="78"/>
-      <c r="E83" s="78"/>
+      <c r="A83" s="84"/>
+      <c r="B83" s="85"/>
+      <c r="C83" s="85"/>
+      <c r="D83" s="85"/>
+      <c r="E83" s="85"/>
       <c r="F83" s="61"/>
       <c r="G83" s="61"/>
       <c r="H83" s="61"/>
       <c r="I83" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A84" s="79"/>
-      <c r="B84" s="80"/>
-      <c r="C84" s="80"/>
-      <c r="D84" s="80"/>
-      <c r="E84" s="80"/>
+      <c r="A84" s="82"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="83"/>
+      <c r="D84" s="83"/>
+      <c r="E84" s="83"/>
       <c r="F84" s="60"/>
       <c r="G84" s="60"/>
       <c r="H84" s="60"/>
       <c r="I84" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A85" s="77"/>
-      <c r="B85" s="78"/>
-      <c r="C85" s="78"/>
-      <c r="D85" s="78"/>
-      <c r="E85" s="78"/>
+      <c r="A85" s="84"/>
+      <c r="B85" s="85"/>
+      <c r="C85" s="85"/>
+      <c r="D85" s="85"/>
+      <c r="E85" s="85"/>
       <c r="F85" s="61"/>
       <c r="G85" s="61"/>
       <c r="H85" s="61"/>
       <c r="I85" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A86" s="79"/>
-      <c r="B86" s="80"/>
-      <c r="C86" s="80"/>
-      <c r="D86" s="80"/>
-      <c r="E86" s="80"/>
+      <c r="A86" s="82"/>
+      <c r="B86" s="83"/>
+      <c r="C86" s="83"/>
+      <c r="D86" s="83"/>
+      <c r="E86" s="83"/>
       <c r="F86" s="60"/>
       <c r="G86" s="60"/>
       <c r="H86" s="60"/>
       <c r="I86" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A87" s="77"/>
-      <c r="B87" s="78"/>
-      <c r="C87" s="78"/>
-      <c r="D87" s="78"/>
-      <c r="E87" s="78"/>
+      <c r="A87" s="84"/>
+      <c r="B87" s="85"/>
+      <c r="C87" s="85"/>
+      <c r="D87" s="85"/>
+      <c r="E87" s="85"/>
       <c r="F87" s="61"/>
       <c r="G87" s="61"/>
       <c r="H87" s="61"/>
       <c r="I87" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A88" s="79"/>
-      <c r="B88" s="80"/>
-      <c r="C88" s="80"/>
-      <c r="D88" s="80"/>
-      <c r="E88" s="80"/>
+      <c r="A88" s="82"/>
+      <c r="B88" s="83"/>
+      <c r="C88" s="83"/>
+      <c r="D88" s="83"/>
+      <c r="E88" s="83"/>
       <c r="F88" s="60"/>
       <c r="G88" s="60"/>
       <c r="H88" s="60"/>
       <c r="I88" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A89" s="77"/>
-      <c r="B89" s="78"/>
-      <c r="C89" s="78"/>
-      <c r="D89" s="78"/>
-      <c r="E89" s="78"/>
+      <c r="A89" s="84"/>
+      <c r="B89" s="85"/>
+      <c r="C89" s="85"/>
+      <c r="D89" s="85"/>
+      <c r="E89" s="85"/>
       <c r="F89" s="61"/>
       <c r="G89" s="61"/>
       <c r="H89" s="61"/>
       <c r="I89" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A90" s="79"/>
-      <c r="B90" s="80"/>
-      <c r="C90" s="80"/>
-      <c r="D90" s="80"/>
-      <c r="E90" s="80"/>
+      <c r="A90" s="82"/>
+      <c r="B90" s="83"/>
+      <c r="C90" s="83"/>
+      <c r="D90" s="83"/>
+      <c r="E90" s="83"/>
       <c r="F90" s="60"/>
       <c r="G90" s="60"/>
       <c r="H90" s="60"/>
       <c r="I90" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A91" s="77"/>
-      <c r="B91" s="78"/>
-      <c r="C91" s="78"/>
-      <c r="D91" s="78"/>
-      <c r="E91" s="78"/>
+      <c r="A91" s="84"/>
+      <c r="B91" s="85"/>
+      <c r="C91" s="85"/>
+      <c r="D91" s="85"/>
+      <c r="E91" s="85"/>
       <c r="F91" s="61"/>
       <c r="G91" s="61"/>
       <c r="H91" s="61"/>
       <c r="I91" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A92" s="79"/>
-      <c r="B92" s="80"/>
-      <c r="C92" s="80"/>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
+      <c r="A92" s="82"/>
+      <c r="B92" s="83"/>
+      <c r="C92" s="83"/>
+      <c r="D92" s="83"/>
+      <c r="E92" s="83"/>
       <c r="F92" s="60"/>
       <c r="G92" s="60"/>
       <c r="H92" s="60"/>
       <c r="I92" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A93" s="77"/>
-      <c r="B93" s="78"/>
-      <c r="C93" s="78"/>
-      <c r="D93" s="78"/>
-      <c r="E93" s="78"/>
+      <c r="A93" s="84"/>
+      <c r="B93" s="85"/>
+      <c r="C93" s="85"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
       <c r="F93" s="61"/>
       <c r="G93" s="61"/>
       <c r="H93" s="61"/>
       <c r="I93" s="73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A94" s="79"/>
-      <c r="B94" s="80"/>
-      <c r="C94" s="80"/>
-      <c r="D94" s="80"/>
-      <c r="E94" s="80"/>
+      <c r="A94" s="82"/>
+      <c r="B94" s="83"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
       <c r="F94" s="60"/>
       <c r="G94" s="60"/>
       <c r="H94" s="60"/>
       <c r="I94" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A95" s="83"/>
-      <c r="B95" s="84"/>
-      <c r="C95" s="84"/>
-      <c r="D95" s="84"/>
-      <c r="E95" s="85"/>
+      <c r="A95" s="96"/>
+      <c r="B95" s="97"/>
+      <c r="C95" s="97"/>
+      <c r="D95" s="97"/>
+      <c r="E95" s="98"/>
       <c r="F95" s="61"/>
       <c r="G95" s="61"/>
       <c r="H95" s="61"/>
       <c r="I95" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A96" s="79"/>
-      <c r="B96" s="80"/>
-      <c r="C96" s="80"/>
-      <c r="D96" s="80"/>
-      <c r="E96" s="80"/>
+      <c r="A96" s="82"/>
+      <c r="B96" s="83"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
       <c r="F96" s="60"/>
       <c r="G96" s="60"/>
       <c r="H96" s="60"/>
       <c r="I96" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A97" s="77"/>
-      <c r="B97" s="78"/>
-      <c r="C97" s="78"/>
-      <c r="D97" s="78"/>
-      <c r="E97" s="78"/>
+      <c r="A97" s="84"/>
+      <c r="B97" s="85"/>
+      <c r="C97" s="85"/>
+      <c r="D97" s="85"/>
+      <c r="E97" s="85"/>
       <c r="F97" s="61"/>
       <c r="G97" s="61"/>
       <c r="H97" s="61"/>
       <c r="I97" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A98" s="79"/>
-      <c r="B98" s="80"/>
-      <c r="C98" s="80"/>
-      <c r="D98" s="80"/>
-      <c r="E98" s="80"/>
+      <c r="A98" s="82"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
       <c r="F98" s="60"/>
       <c r="G98" s="60"/>
       <c r="H98" s="60"/>
       <c r="I98" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A99" s="81"/>
-      <c r="B99" s="82"/>
-      <c r="C99" s="82"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="82"/>
+      <c r="A99" s="90"/>
+      <c r="B99" s="91"/>
+      <c r="C99" s="91"/>
+      <c r="D99" s="91"/>
+      <c r="E99" s="91"/>
       <c r="F99" s="74"/>
       <c r="G99" s="74"/>
       <c r="H99" s="74"/>
       <c r="I99" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A100" s="86"/>
-      <c r="B100" s="87"/>
-      <c r="C100" s="87"/>
-      <c r="D100" s="87"/>
-      <c r="E100" s="87"/>
+      <c r="A100" s="94"/>
+      <c r="B100" s="95"/>
+      <c r="C100" s="95"/>
+      <c r="D100" s="95"/>
+      <c r="E100" s="95"/>
       <c r="F100" s="68"/>
       <c r="G100" s="68"/>
       <c r="H100" s="68"/>
       <c r="I100" s="69" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A101" s="77"/>
-      <c r="B101" s="78"/>
-      <c r="C101" s="78"/>
-      <c r="D101" s="78"/>
-      <c r="E101" s="78"/>
+      <c r="A101" s="84"/>
+      <c r="B101" s="85"/>
+      <c r="C101" s="85"/>
+      <c r="D101" s="85"/>
+      <c r="E101" s="85"/>
       <c r="F101" s="61"/>
       <c r="G101" s="61"/>
       <c r="H101" s="61"/>
       <c r="I101" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A102" s="79"/>
-      <c r="B102" s="80"/>
-      <c r="C102" s="80"/>
-      <c r="D102" s="80"/>
-      <c r="E102" s="80"/>
+      <c r="A102" s="82"/>
+      <c r="B102" s="83"/>
+      <c r="C102" s="83"/>
+      <c r="D102" s="83"/>
+      <c r="E102" s="83"/>
       <c r="F102" s="60"/>
       <c r="G102" s="60"/>
       <c r="H102" s="60"/>
       <c r="I102" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A103" s="77"/>
-      <c r="B103" s="78"/>
-      <c r="C103" s="78"/>
-      <c r="D103" s="78"/>
-      <c r="E103" s="78"/>
+      <c r="A103" s="84"/>
+      <c r="B103" s="85"/>
+      <c r="C103" s="85"/>
+      <c r="D103" s="85"/>
+      <c r="E103" s="85"/>
       <c r="F103" s="61"/>
       <c r="G103" s="61"/>
       <c r="H103" s="61"/>
       <c r="I103" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A104" s="79"/>
-      <c r="B104" s="80"/>
-      <c r="C104" s="80"/>
-      <c r="D104" s="80"/>
-      <c r="E104" s="80"/>
+      <c r="A104" s="82"/>
+      <c r="B104" s="83"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
       <c r="F104" s="60"/>
       <c r="G104" s="60"/>
       <c r="H104" s="60"/>
       <c r="I104" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A105" s="77"/>
-      <c r="B105" s="78"/>
-      <c r="C105" s="78"/>
-      <c r="D105" s="78"/>
-      <c r="E105" s="78"/>
+      <c r="A105" s="84"/>
+      <c r="B105" s="85"/>
+      <c r="C105" s="85"/>
+      <c r="D105" s="85"/>
+      <c r="E105" s="85"/>
       <c r="F105" s="61"/>
       <c r="G105" s="61"/>
       <c r="H105" s="61"/>
       <c r="I105" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A106" s="79"/>
-      <c r="B106" s="80"/>
-      <c r="C106" s="80"/>
-      <c r="D106" s="80"/>
-      <c r="E106" s="80"/>
+      <c r="A106" s="82"/>
+      <c r="B106" s="83"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
       <c r="F106" s="60"/>
       <c r="G106" s="60"/>
       <c r="H106" s="60"/>
       <c r="I106" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A107" s="77"/>
-      <c r="B107" s="78"/>
-      <c r="C107" s="78"/>
-      <c r="D107" s="78"/>
-      <c r="E107" s="78"/>
+      <c r="A107" s="84"/>
+      <c r="B107" s="85"/>
+      <c r="C107" s="85"/>
+      <c r="D107" s="85"/>
+      <c r="E107" s="85"/>
       <c r="F107" s="61"/>
       <c r="G107" s="61"/>
       <c r="H107" s="61"/>
       <c r="I107" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A108" s="79"/>
-      <c r="B108" s="80"/>
-      <c r="C108" s="80"/>
-      <c r="D108" s="80"/>
-      <c r="E108" s="80"/>
+      <c r="A108" s="82"/>
+      <c r="B108" s="83"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
       <c r="F108" s="60"/>
       <c r="G108" s="60"/>
       <c r="H108" s="60"/>
       <c r="I108" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A109" s="77"/>
-      <c r="B109" s="78"/>
-      <c r="C109" s="78"/>
-      <c r="D109" s="78"/>
-      <c r="E109" s="78"/>
+      <c r="A109" s="84"/>
+      <c r="B109" s="85"/>
+      <c r="C109" s="85"/>
+      <c r="D109" s="85"/>
+      <c r="E109" s="85"/>
       <c r="F109" s="61"/>
       <c r="G109" s="61"/>
       <c r="H109" s="61"/>
       <c r="I109" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A110" s="79"/>
-      <c r="B110" s="80"/>
-      <c r="C110" s="80"/>
-      <c r="D110" s="80"/>
-      <c r="E110" s="80"/>
+      <c r="A110" s="82"/>
+      <c r="B110" s="83"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
       <c r="F110" s="60"/>
       <c r="G110" s="60"/>
       <c r="H110" s="60"/>
       <c r="I110" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A111" s="77"/>
-      <c r="B111" s="78"/>
-      <c r="C111" s="78"/>
-      <c r="D111" s="78"/>
-      <c r="E111" s="78"/>
+      <c r="A111" s="84"/>
+      <c r="B111" s="85"/>
+      <c r="C111" s="85"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
       <c r="F111" s="61"/>
       <c r="G111" s="61"/>
       <c r="H111" s="61"/>
       <c r="I111" s="73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A112" s="79"/>
-      <c r="B112" s="80"/>
-      <c r="C112" s="80"/>
-      <c r="D112" s="80"/>
-      <c r="E112" s="80"/>
+      <c r="A112" s="82"/>
+      <c r="B112" s="83"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
       <c r="F112" s="60"/>
       <c r="G112" s="60"/>
       <c r="H112" s="60"/>
       <c r="I112" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A113" s="83"/>
-      <c r="B113" s="84"/>
-      <c r="C113" s="84"/>
-      <c r="D113" s="84"/>
-      <c r="E113" s="85"/>
+      <c r="A113" s="96"/>
+      <c r="B113" s="97"/>
+      <c r="C113" s="97"/>
+      <c r="D113" s="97"/>
+      <c r="E113" s="98"/>
       <c r="F113" s="61"/>
       <c r="G113" s="61"/>
       <c r="H113" s="61"/>
       <c r="I113" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A114" s="79"/>
-      <c r="B114" s="80"/>
-      <c r="C114" s="80"/>
-      <c r="D114" s="80"/>
-      <c r="E114" s="80"/>
+      <c r="A114" s="82"/>
+      <c r="B114" s="83"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
       <c r="F114" s="60"/>
       <c r="G114" s="60"/>
       <c r="H114" s="60"/>
       <c r="I114" s="71" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A115" s="77"/>
-      <c r="B115" s="78"/>
-      <c r="C115" s="78"/>
-      <c r="D115" s="78"/>
-      <c r="E115" s="78"/>
+      <c r="A115" s="84"/>
+      <c r="B115" s="85"/>
+      <c r="C115" s="85"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
       <c r="F115" s="61"/>
       <c r="G115" s="61"/>
       <c r="H115" s="61"/>
       <c r="I115" s="70" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A116" s="79"/>
-      <c r="B116" s="80"/>
-      <c r="C116" s="80"/>
-      <c r="D116" s="80"/>
-      <c r="E116" s="80"/>
+      <c r="A116" s="82"/>
+      <c r="B116" s="83"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
       <c r="F116" s="60"/>
       <c r="G116" s="60"/>
       <c r="H116" s="60"/>
       <c r="I116" s="72" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A117" s="81"/>
-      <c r="B117" s="82"/>
-      <c r="C117" s="82"/>
-      <c r="D117" s="82"/>
-      <c r="E117" s="82"/>
+      <c r="A117" s="90"/>
+      <c r="B117" s="91"/>
+      <c r="C117" s="91"/>
+      <c r="D117" s="91"/>
+      <c r="E117" s="91"/>
       <c r="F117" s="74"/>
       <c r="G117" s="74"/>
       <c r="H117" s="74"/>
       <c r="I117" s="75" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J117" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:G75"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="A99:E99"/>
@@ -3090,24 +3082,18 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:G75"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:J11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ADSDataDirect.Web/Templates/Tracking2.xlsx
+++ b/ADSDataDirect.Web/Templates/Tracking2.xlsx
@@ -704,7 +704,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -756,9 +756,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="7" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="16" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,6 +873,57 @@
     <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -891,57 +939,12 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="5"/>
-    </xf>
+    <xf numFmtId="37" fontId="15" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="16" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="22" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="37" fontId="22" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1008,7 +1011,7 @@
         <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6DEF1A45-3E5D-462A-91AF-E22A9FC6595F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1020,7 +1023,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1058,7 +1061,7 @@
         <xdr:cNvPr id="9" name="Picture 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E130FC-7FBD-4FEF-956C-6BF505EDB0A7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1070,7 +1073,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1108,7 +1111,7 @@
         <xdr:cNvPr id="10" name="Picture 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D019ABE-D70D-4CF3-99C2-0C11B1E847CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1120,7 +1123,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -1432,7 +1435,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1530,91 +1533,91 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="57"/>
+      <c r="G6" s="56"/>
       <c r="I6" s="7"/>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="16" customFormat="1" ht="21.9" customHeight="1">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="77"/>
-      <c r="C7" s="77"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
     </row>
     <row r="8" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A8" s="86" t="s">
+      <c r="A8" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="49" t="s">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51">
+      <c r="I8" s="49"/>
+      <c r="J8" s="50">
         <v>2665</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A9" s="87"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="49" t="s">
+      <c r="A9" s="90"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="50"/>
-      <c r="J9" s="52">
+      <c r="I9" s="49"/>
+      <c r="J9" s="51">
         <v>42901</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A10" s="87"/>
-      <c r="B10" s="89"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
-      <c r="H10" s="49" t="s">
+      <c r="A10" s="90"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="52">
+      <c r="I10" s="49"/>
+      <c r="J10" s="51">
         <v>42901</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="25.8">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="81"/>
-      <c r="J11" s="81"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="1"/>
@@ -1629,20 +1632,20 @@
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" ht="35.1" customHeight="1">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="47" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="19"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
     </row>
     <row r="14" spans="1:10" ht="17.399999999999999">
       <c r="A14" s="20"/>
@@ -1650,35 +1653,35 @@
       <c r="C14" s="22"/>
       <c r="D14" s="22"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="35" t="s">
+      <c r="F14" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="H14" s="37" t="s">
+      <c r="G14" s="35"/>
+      <c r="H14" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="38"/>
-      <c r="J14" s="46"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="45"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1">
       <c r="A15" s="20"/>
       <c r="B15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="98">
         <v>100000</v>
       </c>
       <c r="D15" s="23"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="39" t="s">
+      <c r="F15" s="38" t="s">
         <v>6</v>
       </c>
       <c r="G15" s="23"/>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="46"/>
+      <c r="I15" s="40"/>
+      <c r="J15" s="45"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1">
       <c r="A16" s="24"/>
@@ -1693,8 +1696,8 @@
       <c r="J16" s="19"/>
     </row>
     <row r="17" spans="1:10" ht="15.6">
-      <c r="A17" s="79"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
       <c r="E17" s="3"/>
@@ -1705,16 +1708,16 @@
       <c r="J17" s="19"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A18" s="79"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="47"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="46"/>
       <c r="I18" s="19"/>
-      <c r="J18" s="44"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="24.9" customHeight="1">
       <c r="A19" s="18"/>
@@ -1722,31 +1725,31 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="47"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="46"/>
       <c r="I19" s="19"/>
-      <c r="J19" s="44"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="31.2">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="44" t="s">
         <v>16</v>
       </c>
       <c r="B20" s="26"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
       <c r="E20" s="3"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="43"/>
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="42"/>
       <c r="I20" s="19"/>
-      <c r="J20" s="44"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="31.2">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
       <c r="E21" s="3"/>
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
@@ -1764,27 +1767,27 @@
       </c>
       <c r="D22" s="28"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="42"/>
-      <c r="G22" s="42"/>
-      <c r="H22" s="43"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="42"/>
       <c r="I22" s="19"/>
-      <c r="J22" s="44"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="31.2">
       <c r="A23" s="19"/>
       <c r="B23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="98">
         <v>17513</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="3"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="43"/>
+      <c r="H23" s="42"/>
       <c r="I23" s="19"/>
-      <c r="J23" s="44"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="19"/>
@@ -1811,16 +1814,16 @@
       <c r="J25" s="19"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="29">
+      <c r="A26" s="99">
         <v>2619</v>
       </c>
-      <c r="B26" s="30">
+      <c r="B26" s="29">
         <v>2.6190000000000001E-2</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="29">
         <v>0.14954605150459657</v>
       </c>
-      <c r="D26" s="30"/>
+      <c r="D26" s="29"/>
       <c r="E26" s="3"/>
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
@@ -1829,16 +1832,16 @@
       <c r="J26" s="19"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="31"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="3"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
@@ -1859,14 +1862,14 @@
       <c r="J28" s="19"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A29" s="54">
+      <c r="A29" s="53">
         <v>27</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="53">
         <v>3</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
       <c r="E29" s="3"/>
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
@@ -1875,14 +1878,14 @@
       <c r="J29" s="19"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A30" s="56" t="s">
+      <c r="A30" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
       <c r="E30" s="3"/>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -1927,7 +1930,7 @@
       <c r="J33" s="19"/>
     </row>
     <row r="34" spans="1:10" ht="15.6">
-      <c r="A34" s="78" t="s">
+      <c r="A34" s="94" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="26"/>
@@ -1941,7 +1944,7 @@
       <c r="J34" s="19"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="78"/>
+      <c r="A35" s="94"/>
       <c r="B35" s="19"/>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
@@ -1955,8 +1958,8 @@
     <row r="36" spans="1:10" ht="31.2">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
       <c r="E36" s="3"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
@@ -1969,10 +1972,10 @@
       <c r="B37" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="32">
+      <c r="C37" s="100">
         <v>1340</v>
       </c>
-      <c r="D37" s="32"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="3"/>
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
@@ -1985,10 +1988,10 @@
       <c r="B38" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="33">
+      <c r="C38" s="101">
         <v>1279</v>
       </c>
-      <c r="D38" s="33"/>
+      <c r="D38" s="32"/>
       <c r="E38" s="3"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -2141,7 +2144,7 @@
       <c r="J50" s="3"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="58" t="s">
+      <c r="A51" s="57" t="s">
         <v>25</v>
       </c>
       <c r="B51" s="9"/>
@@ -2365,7 +2368,7 @@
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
-      <c r="G69" s="59"/>
+      <c r="G69" s="58"/>
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
@@ -2377,7 +2380,7 @@
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
-      <c r="G70" s="64"/>
+      <c r="G70" s="63"/>
       <c r="H70" s="7"/>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -2389,7 +2392,7 @@
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="64"/>
+      <c r="G71" s="63"/>
       <c r="H71" s="7"/>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -2402,59 +2405,59 @@
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="I72" s="7"/>
-      <c r="J72" s="76" t="s">
+      <c r="J72" s="75" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="21">
-      <c r="A73" s="86" t="s">
+      <c r="A73" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="B73" s="88" t="s">
+      <c r="B73" s="91" t="s">
         <v>4</v>
       </c>
-      <c r="C73" s="88"/>
-      <c r="D73" s="88"/>
-      <c r="E73" s="88"/>
-      <c r="F73" s="88"/>
-      <c r="G73" s="88"/>
-      <c r="H73" s="49" t="s">
+      <c r="C73" s="91"/>
+      <c r="D73" s="91"/>
+      <c r="E73" s="91"/>
+      <c r="F73" s="91"/>
+      <c r="G73" s="91"/>
+      <c r="H73" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="I73" s="50"/>
-      <c r="J73" s="51">
+      <c r="I73" s="49"/>
+      <c r="J73" s="50">
         <v>2665</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="21">
-      <c r="A74" s="87"/>
-      <c r="B74" s="89"/>
-      <c r="C74" s="89"/>
-      <c r="D74" s="89"/>
-      <c r="E74" s="89"/>
-      <c r="F74" s="89"/>
-      <c r="G74" s="89"/>
-      <c r="H74" s="49" t="s">
+      <c r="A74" s="90"/>
+      <c r="B74" s="92"/>
+      <c r="C74" s="92"/>
+      <c r="D74" s="92"/>
+      <c r="E74" s="92"/>
+      <c r="F74" s="92"/>
+      <c r="G74" s="92"/>
+      <c r="H74" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="50"/>
-      <c r="J74" s="52">
+      <c r="I74" s="49"/>
+      <c r="J74" s="51">
         <v>42901</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="21">
-      <c r="A75" s="87"/>
-      <c r="B75" s="89"/>
-      <c r="C75" s="89"/>
-      <c r="D75" s="89"/>
-      <c r="E75" s="89"/>
-      <c r="F75" s="89"/>
-      <c r="G75" s="89"/>
-      <c r="H75" s="49" t="s">
+      <c r="A75" s="90"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="92"/>
+      <c r="D75" s="92"/>
+      <c r="E75" s="92"/>
+      <c r="F75" s="92"/>
+      <c r="G75" s="92"/>
+      <c r="H75" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="I75" s="50"/>
-      <c r="J75" s="52">
+      <c r="I75" s="49"/>
+      <c r="J75" s="51">
         <v>42901</v>
       </c>
     </row>
@@ -2509,563 +2512,557 @@
       <c r="J79" s="8"/>
     </row>
     <row r="80" spans="1:10" ht="23.4">
-      <c r="A80" s="92" t="s">
+      <c r="A80" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B80" s="92"/>
-      <c r="C80" s="92"/>
-      <c r="D80" s="92"/>
-      <c r="E80" s="93"/>
-      <c r="F80" s="66" t="s">
+      <c r="B80" s="87"/>
+      <c r="C80" s="87"/>
+      <c r="D80" s="87"/>
+      <c r="E80" s="88"/>
+      <c r="F80" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="67" t="s">
+      <c r="G80" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="67" t="s">
+      <c r="H80" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="I80" s="66" t="s">
+      <c r="I80" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="J80" s="65"/>
+      <c r="J80" s="64"/>
     </row>
     <row r="81" spans="1:10">
-      <c r="A81" s="62"/>
-      <c r="B81" s="62"/>
-      <c r="C81" s="62"/>
-      <c r="D81" s="62"/>
-      <c r="E81" s="62"/>
-      <c r="F81" s="62"/>
-      <c r="G81" s="62"/>
-      <c r="H81" s="62"/>
-      <c r="I81" s="62"/>
-      <c r="J81" s="63"/>
+      <c r="A81" s="61"/>
+      <c r="B81" s="61"/>
+      <c r="C81" s="61"/>
+      <c r="D81" s="61"/>
+      <c r="E81" s="61"/>
+      <c r="F81" s="61"/>
+      <c r="G81" s="61"/>
+      <c r="H81" s="61"/>
+      <c r="I81" s="61"/>
+      <c r="J81" s="62"/>
     </row>
     <row r="82" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A82" s="94"/>
-      <c r="B82" s="95"/>
-      <c r="C82" s="95"/>
-      <c r="D82" s="95"/>
-      <c r="E82" s="95"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="69" t="s">
+      <c r="A82" s="85"/>
+      <c r="B82" s="86"/>
+      <c r="C82" s="86"/>
+      <c r="D82" s="86"/>
+      <c r="E82" s="86"/>
+      <c r="F82" s="67"/>
+      <c r="G82" s="67"/>
+      <c r="H82" s="67"/>
+      <c r="I82" s="68" t="s">
         <v>32</v>
       </c>
       <c r="J82" s="3"/>
     </row>
     <row r="83" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A83" s="84"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="85"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="61"/>
-      <c r="G83" s="61"/>
-      <c r="H83" s="61"/>
-      <c r="I83" s="70" t="s">
+      <c r="A83" s="76"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="77"/>
+      <c r="D83" s="77"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="60"/>
+      <c r="G83" s="60"/>
+      <c r="H83" s="60"/>
+      <c r="I83" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J83" s="3"/>
     </row>
     <row r="84" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A84" s="82"/>
-      <c r="B84" s="83"/>
-      <c r="C84" s="83"/>
-      <c r="D84" s="83"/>
-      <c r="E84" s="83"/>
-      <c r="F84" s="60"/>
-      <c r="G84" s="60"/>
-      <c r="H84" s="60"/>
-      <c r="I84" s="71" t="s">
+      <c r="A84" s="78"/>
+      <c r="B84" s="79"/>
+      <c r="C84" s="79"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="59"/>
+      <c r="G84" s="59"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J84" s="3"/>
     </row>
     <row r="85" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A85" s="84"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="85"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="61"/>
-      <c r="G85" s="61"/>
-      <c r="H85" s="61"/>
-      <c r="I85" s="70" t="s">
+      <c r="A85" s="76"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="77"/>
+      <c r="D85" s="77"/>
+      <c r="E85" s="77"/>
+      <c r="F85" s="60"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J85" s="3"/>
     </row>
     <row r="86" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A86" s="82"/>
-      <c r="B86" s="83"/>
-      <c r="C86" s="83"/>
-      <c r="D86" s="83"/>
-      <c r="E86" s="83"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="60"/>
-      <c r="H86" s="60"/>
-      <c r="I86" s="71" t="s">
+      <c r="A86" s="78"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="79"/>
+      <c r="D86" s="79"/>
+      <c r="E86" s="79"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="59"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J86" s="3"/>
     </row>
     <row r="87" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A87" s="84"/>
-      <c r="B87" s="85"/>
-      <c r="C87" s="85"/>
-      <c r="D87" s="85"/>
-      <c r="E87" s="85"/>
-      <c r="F87" s="61"/>
-      <c r="G87" s="61"/>
-      <c r="H87" s="61"/>
-      <c r="I87" s="70" t="s">
+      <c r="A87" s="76"/>
+      <c r="B87" s="77"/>
+      <c r="C87" s="77"/>
+      <c r="D87" s="77"/>
+      <c r="E87" s="77"/>
+      <c r="F87" s="60"/>
+      <c r="G87" s="60"/>
+      <c r="H87" s="60"/>
+      <c r="I87" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J87" s="3"/>
     </row>
     <row r="88" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A88" s="82"/>
-      <c r="B88" s="83"/>
-      <c r="C88" s="83"/>
-      <c r="D88" s="83"/>
-      <c r="E88" s="83"/>
-      <c r="F88" s="60"/>
-      <c r="G88" s="60"/>
-      <c r="H88" s="60"/>
-      <c r="I88" s="71" t="s">
+      <c r="A88" s="78"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="79"/>
+      <c r="D88" s="79"/>
+      <c r="E88" s="79"/>
+      <c r="F88" s="59"/>
+      <c r="G88" s="59"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J88" s="3"/>
     </row>
     <row r="89" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A89" s="84"/>
-      <c r="B89" s="85"/>
-      <c r="C89" s="85"/>
-      <c r="D89" s="85"/>
-      <c r="E89" s="85"/>
-      <c r="F89" s="61"/>
-      <c r="G89" s="61"/>
-      <c r="H89" s="61"/>
-      <c r="I89" s="70" t="s">
+      <c r="A89" s="76"/>
+      <c r="B89" s="77"/>
+      <c r="C89" s="77"/>
+      <c r="D89" s="77"/>
+      <c r="E89" s="77"/>
+      <c r="F89" s="60"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J89" s="3"/>
     </row>
     <row r="90" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A90" s="82"/>
-      <c r="B90" s="83"/>
-      <c r="C90" s="83"/>
-      <c r="D90" s="83"/>
-      <c r="E90" s="83"/>
-      <c r="F90" s="60"/>
-      <c r="G90" s="60"/>
-      <c r="H90" s="60"/>
-      <c r="I90" s="71" t="s">
+      <c r="A90" s="78"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="79"/>
+      <c r="D90" s="79"/>
+      <c r="E90" s="79"/>
+      <c r="F90" s="59"/>
+      <c r="G90" s="59"/>
+      <c r="H90" s="59"/>
+      <c r="I90" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J90" s="3"/>
     </row>
     <row r="91" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A91" s="84"/>
-      <c r="B91" s="85"/>
-      <c r="C91" s="85"/>
-      <c r="D91" s="85"/>
-      <c r="E91" s="85"/>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
-      <c r="H91" s="61"/>
-      <c r="I91" s="70" t="s">
+      <c r="A91" s="76"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="77"/>
+      <c r="D91" s="77"/>
+      <c r="E91" s="77"/>
+      <c r="F91" s="60"/>
+      <c r="G91" s="60"/>
+      <c r="H91" s="60"/>
+      <c r="I91" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J91" s="3"/>
     </row>
     <row r="92" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A92" s="82"/>
-      <c r="B92" s="83"/>
-      <c r="C92" s="83"/>
-      <c r="D92" s="83"/>
-      <c r="E92" s="83"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="60"/>
-      <c r="H92" s="60"/>
-      <c r="I92" s="72" t="s">
+      <c r="A92" s="78"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="79"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="59"/>
+      <c r="H92" s="59"/>
+      <c r="I92" s="71" t="s">
         <v>32</v>
       </c>
       <c r="J92" s="3"/>
     </row>
     <row r="93" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A93" s="84"/>
-      <c r="B93" s="85"/>
-      <c r="C93" s="85"/>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="61"/>
-      <c r="G93" s="61"/>
-      <c r="H93" s="61"/>
-      <c r="I93" s="73" t="s">
+      <c r="A93" s="76"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="77"/>
+      <c r="D93" s="77"/>
+      <c r="E93" s="77"/>
+      <c r="F93" s="60"/>
+      <c r="G93" s="60"/>
+      <c r="H93" s="60"/>
+      <c r="I93" s="72" t="s">
         <v>32</v>
       </c>
       <c r="J93" s="3"/>
     </row>
     <row r="94" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A94" s="82"/>
-      <c r="B94" s="83"/>
-      <c r="C94" s="83"/>
-      <c r="D94" s="83"/>
-      <c r="E94" s="83"/>
-      <c r="F94" s="60"/>
-      <c r="G94" s="60"/>
-      <c r="H94" s="60"/>
-      <c r="I94" s="71" t="s">
+      <c r="A94" s="78"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="79"/>
+      <c r="D94" s="79"/>
+      <c r="E94" s="79"/>
+      <c r="F94" s="59"/>
+      <c r="G94" s="59"/>
+      <c r="H94" s="59"/>
+      <c r="I94" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J94" s="3"/>
     </row>
     <row r="95" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A95" s="96"/>
-      <c r="B95" s="97"/>
-      <c r="C95" s="97"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="98"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="61"/>
-      <c r="H95" s="61"/>
-      <c r="I95" s="70" t="s">
+      <c r="A95" s="82"/>
+      <c r="B95" s="83"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="84"/>
+      <c r="F95" s="60"/>
+      <c r="G95" s="60"/>
+      <c r="H95" s="60"/>
+      <c r="I95" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J95" s="3"/>
     </row>
     <row r="96" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A96" s="82"/>
-      <c r="B96" s="83"/>
-      <c r="C96" s="83"/>
-      <c r="D96" s="83"/>
-      <c r="E96" s="83"/>
-      <c r="F96" s="60"/>
-      <c r="G96" s="60"/>
-      <c r="H96" s="60"/>
-      <c r="I96" s="71" t="s">
+      <c r="A96" s="78"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="79"/>
+      <c r="E96" s="79"/>
+      <c r="F96" s="59"/>
+      <c r="G96" s="59"/>
+      <c r="H96" s="59"/>
+      <c r="I96" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J96" s="3"/>
     </row>
     <row r="97" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A97" s="84"/>
-      <c r="B97" s="85"/>
-      <c r="C97" s="85"/>
-      <c r="D97" s="85"/>
-      <c r="E97" s="85"/>
-      <c r="F97" s="61"/>
-      <c r="G97" s="61"/>
-      <c r="H97" s="61"/>
-      <c r="I97" s="70" t="s">
+      <c r="A97" s="76"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="77"/>
+      <c r="D97" s="77"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="60"/>
+      <c r="G97" s="60"/>
+      <c r="H97" s="60"/>
+      <c r="I97" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J97" s="3"/>
     </row>
     <row r="98" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A98" s="82"/>
-      <c r="B98" s="83"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="60"/>
-      <c r="G98" s="60"/>
-      <c r="H98" s="60"/>
-      <c r="I98" s="72" t="s">
+      <c r="A98" s="78"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="59"/>
+      <c r="G98" s="59"/>
+      <c r="H98" s="59"/>
+      <c r="I98" s="71" t="s">
         <v>32</v>
       </c>
       <c r="J98" s="3"/>
     </row>
     <row r="99" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A99" s="90"/>
-      <c r="B99" s="91"/>
-      <c r="C99" s="91"/>
-      <c r="D99" s="91"/>
-      <c r="E99" s="91"/>
-      <c r="F99" s="74"/>
-      <c r="G99" s="74"/>
-      <c r="H99" s="74"/>
-      <c r="I99" s="75" t="s">
+      <c r="A99" s="80"/>
+      <c r="B99" s="81"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="81"/>
+      <c r="E99" s="81"/>
+      <c r="F99" s="73"/>
+      <c r="G99" s="73"/>
+      <c r="H99" s="73"/>
+      <c r="I99" s="74" t="s">
         <v>32</v>
       </c>
       <c r="J99" s="3"/>
     </row>
     <row r="100" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A100" s="94"/>
-      <c r="B100" s="95"/>
-      <c r="C100" s="95"/>
-      <c r="D100" s="95"/>
-      <c r="E100" s="95"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="69" t="s">
+      <c r="A100" s="85"/>
+      <c r="B100" s="86"/>
+      <c r="C100" s="86"/>
+      <c r="D100" s="86"/>
+      <c r="E100" s="86"/>
+      <c r="F100" s="67"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
+      <c r="I100" s="68" t="s">
         <v>32</v>
       </c>
       <c r="J100" s="3"/>
     </row>
     <row r="101" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A101" s="84"/>
-      <c r="B101" s="85"/>
-      <c r="C101" s="85"/>
-      <c r="D101" s="85"/>
-      <c r="E101" s="85"/>
-      <c r="F101" s="61"/>
-      <c r="G101" s="61"/>
-      <c r="H101" s="61"/>
-      <c r="I101" s="70" t="s">
+      <c r="A101" s="76"/>
+      <c r="B101" s="77"/>
+      <c r="C101" s="77"/>
+      <c r="D101" s="77"/>
+      <c r="E101" s="77"/>
+      <c r="F101" s="60"/>
+      <c r="G101" s="60"/>
+      <c r="H101" s="60"/>
+      <c r="I101" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J101" s="3"/>
     </row>
     <row r="102" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A102" s="82"/>
-      <c r="B102" s="83"/>
-      <c r="C102" s="83"/>
-      <c r="D102" s="83"/>
-      <c r="E102" s="83"/>
-      <c r="F102" s="60"/>
-      <c r="G102" s="60"/>
-      <c r="H102" s="60"/>
-      <c r="I102" s="71" t="s">
+      <c r="A102" s="78"/>
+      <c r="B102" s="79"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="79"/>
+      <c r="E102" s="79"/>
+      <c r="F102" s="59"/>
+      <c r="G102" s="59"/>
+      <c r="H102" s="59"/>
+      <c r="I102" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J102" s="3"/>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A103" s="84"/>
-      <c r="B103" s="85"/>
-      <c r="C103" s="85"/>
-      <c r="D103" s="85"/>
-      <c r="E103" s="85"/>
-      <c r="F103" s="61"/>
-      <c r="G103" s="61"/>
-      <c r="H103" s="61"/>
-      <c r="I103" s="70" t="s">
+      <c r="A103" s="76"/>
+      <c r="B103" s="77"/>
+      <c r="C103" s="77"/>
+      <c r="D103" s="77"/>
+      <c r="E103" s="77"/>
+      <c r="F103" s="60"/>
+      <c r="G103" s="60"/>
+      <c r="H103" s="60"/>
+      <c r="I103" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J103" s="3"/>
     </row>
     <row r="104" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A104" s="82"/>
-      <c r="B104" s="83"/>
-      <c r="C104" s="83"/>
-      <c r="D104" s="83"/>
-      <c r="E104" s="83"/>
-      <c r="F104" s="60"/>
-      <c r="G104" s="60"/>
-      <c r="H104" s="60"/>
-      <c r="I104" s="71" t="s">
+      <c r="A104" s="78"/>
+      <c r="B104" s="79"/>
+      <c r="C104" s="79"/>
+      <c r="D104" s="79"/>
+      <c r="E104" s="79"/>
+      <c r="F104" s="59"/>
+      <c r="G104" s="59"/>
+      <c r="H104" s="59"/>
+      <c r="I104" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J104" s="3"/>
     </row>
     <row r="105" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A105" s="84"/>
-      <c r="B105" s="85"/>
-      <c r="C105" s="85"/>
-      <c r="D105" s="85"/>
-      <c r="E105" s="85"/>
-      <c r="F105" s="61"/>
-      <c r="G105" s="61"/>
-      <c r="H105" s="61"/>
-      <c r="I105" s="70" t="s">
+      <c r="A105" s="76"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="77"/>
+      <c r="D105" s="77"/>
+      <c r="E105" s="77"/>
+      <c r="F105" s="60"/>
+      <c r="G105" s="60"/>
+      <c r="H105" s="60"/>
+      <c r="I105" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J105" s="3"/>
     </row>
     <row r="106" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A106" s="82"/>
-      <c r="B106" s="83"/>
-      <c r="C106" s="83"/>
-      <c r="D106" s="83"/>
-      <c r="E106" s="83"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="60"/>
-      <c r="H106" s="60"/>
-      <c r="I106" s="71" t="s">
+      <c r="A106" s="78"/>
+      <c r="B106" s="79"/>
+      <c r="C106" s="79"/>
+      <c r="D106" s="79"/>
+      <c r="E106" s="79"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="59"/>
+      <c r="H106" s="59"/>
+      <c r="I106" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J106" s="3"/>
     </row>
     <row r="107" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A107" s="84"/>
-      <c r="B107" s="85"/>
-      <c r="C107" s="85"/>
-      <c r="D107" s="85"/>
-      <c r="E107" s="85"/>
-      <c r="F107" s="61"/>
-      <c r="G107" s="61"/>
-      <c r="H107" s="61"/>
-      <c r="I107" s="70" t="s">
+      <c r="A107" s="76"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="77"/>
+      <c r="D107" s="77"/>
+      <c r="E107" s="77"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J107" s="3"/>
     </row>
     <row r="108" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A108" s="82"/>
-      <c r="B108" s="83"/>
-      <c r="C108" s="83"/>
-      <c r="D108" s="83"/>
-      <c r="E108" s="83"/>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
-      <c r="H108" s="60"/>
-      <c r="I108" s="71" t="s">
+      <c r="A108" s="78"/>
+      <c r="B108" s="79"/>
+      <c r="C108" s="79"/>
+      <c r="D108" s="79"/>
+      <c r="E108" s="79"/>
+      <c r="F108" s="59"/>
+      <c r="G108" s="59"/>
+      <c r="H108" s="59"/>
+      <c r="I108" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J108" s="3"/>
     </row>
     <row r="109" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A109" s="84"/>
-      <c r="B109" s="85"/>
-      <c r="C109" s="85"/>
-      <c r="D109" s="85"/>
-      <c r="E109" s="85"/>
-      <c r="F109" s="61"/>
-      <c r="G109" s="61"/>
-      <c r="H109" s="61"/>
-      <c r="I109" s="70" t="s">
+      <c r="A109" s="76"/>
+      <c r="B109" s="77"/>
+      <c r="C109" s="77"/>
+      <c r="D109" s="77"/>
+      <c r="E109" s="77"/>
+      <c r="F109" s="60"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J109" s="3"/>
     </row>
     <row r="110" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A110" s="82"/>
-      <c r="B110" s="83"/>
-      <c r="C110" s="83"/>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="60"/>
-      <c r="G110" s="60"/>
-      <c r="H110" s="60"/>
-      <c r="I110" s="72" t="s">
+      <c r="A110" s="78"/>
+      <c r="B110" s="79"/>
+      <c r="C110" s="79"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="59"/>
+      <c r="G110" s="59"/>
+      <c r="H110" s="59"/>
+      <c r="I110" s="71" t="s">
         <v>32</v>
       </c>
       <c r="J110" s="3"/>
     </row>
     <row r="111" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A111" s="84"/>
-      <c r="B111" s="85"/>
-      <c r="C111" s="85"/>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="61"/>
-      <c r="G111" s="61"/>
-      <c r="H111" s="61"/>
-      <c r="I111" s="73" t="s">
+      <c r="A111" s="76"/>
+      <c r="B111" s="77"/>
+      <c r="C111" s="77"/>
+      <c r="D111" s="77"/>
+      <c r="E111" s="77"/>
+      <c r="F111" s="60"/>
+      <c r="G111" s="60"/>
+      <c r="H111" s="60"/>
+      <c r="I111" s="72" t="s">
         <v>32</v>
       </c>
       <c r="J111" s="3"/>
     </row>
     <row r="112" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A112" s="82"/>
-      <c r="B112" s="83"/>
-      <c r="C112" s="83"/>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="60"/>
-      <c r="G112" s="60"/>
-      <c r="H112" s="60"/>
-      <c r="I112" s="71" t="s">
+      <c r="A112" s="78"/>
+      <c r="B112" s="79"/>
+      <c r="C112" s="79"/>
+      <c r="D112" s="79"/>
+      <c r="E112" s="79"/>
+      <c r="F112" s="59"/>
+      <c r="G112" s="59"/>
+      <c r="H112" s="59"/>
+      <c r="I112" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J112" s="3"/>
     </row>
     <row r="113" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A113" s="96"/>
-      <c r="B113" s="97"/>
-      <c r="C113" s="97"/>
-      <c r="D113" s="97"/>
-      <c r="E113" s="98"/>
-      <c r="F113" s="61"/>
-      <c r="G113" s="61"/>
-      <c r="H113" s="61"/>
-      <c r="I113" s="70" t="s">
+      <c r="A113" s="82"/>
+      <c r="B113" s="83"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="84"/>
+      <c r="F113" s="60"/>
+      <c r="G113" s="60"/>
+      <c r="H113" s="60"/>
+      <c r="I113" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J113" s="3"/>
     </row>
     <row r="114" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A114" s="82"/>
-      <c r="B114" s="83"/>
-      <c r="C114" s="83"/>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="60"/>
-      <c r="G114" s="60"/>
-      <c r="H114" s="60"/>
-      <c r="I114" s="71" t="s">
+      <c r="A114" s="78"/>
+      <c r="B114" s="79"/>
+      <c r="C114" s="79"/>
+      <c r="D114" s="79"/>
+      <c r="E114" s="79"/>
+      <c r="F114" s="59"/>
+      <c r="G114" s="59"/>
+      <c r="H114" s="59"/>
+      <c r="I114" s="70" t="s">
         <v>32</v>
       </c>
       <c r="J114" s="3"/>
     </row>
     <row r="115" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A115" s="84"/>
-      <c r="B115" s="85"/>
-      <c r="C115" s="85"/>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="61"/>
-      <c r="G115" s="61"/>
-      <c r="H115" s="61"/>
-      <c r="I115" s="70" t="s">
+      <c r="A115" s="76"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="77"/>
+      <c r="D115" s="77"/>
+      <c r="E115" s="77"/>
+      <c r="F115" s="60"/>
+      <c r="G115" s="60"/>
+      <c r="H115" s="60"/>
+      <c r="I115" s="69" t="s">
         <v>32</v>
       </c>
       <c r="J115" s="3"/>
     </row>
     <row r="116" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A116" s="82"/>
-      <c r="B116" s="83"/>
-      <c r="C116" s="83"/>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="60"/>
-      <c r="G116" s="60"/>
-      <c r="H116" s="60"/>
-      <c r="I116" s="72" t="s">
+      <c r="A116" s="78"/>
+      <c r="B116" s="79"/>
+      <c r="C116" s="79"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
+      <c r="F116" s="59"/>
+      <c r="G116" s="59"/>
+      <c r="H116" s="59"/>
+      <c r="I116" s="71" t="s">
         <v>32</v>
       </c>
       <c r="J116" s="3"/>
     </row>
     <row r="117" spans="1:10" ht="50.1" customHeight="1">
-      <c r="A117" s="90"/>
-      <c r="B117" s="91"/>
-      <c r="C117" s="91"/>
-      <c r="D117" s="91"/>
-      <c r="E117" s="91"/>
-      <c r="F117" s="74"/>
-      <c r="G117" s="74"/>
-      <c r="H117" s="74"/>
-      <c r="I117" s="75" t="s">
+      <c r="A117" s="80"/>
+      <c r="B117" s="81"/>
+      <c r="C117" s="81"/>
+      <c r="D117" s="81"/>
+      <c r="E117" s="81"/>
+      <c r="F117" s="73"/>
+      <c r="G117" s="73"/>
+      <c r="H117" s="73"/>
+      <c r="I117" s="74" t="s">
         <v>32</v>
       </c>
       <c r="J117" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A116:E116"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="A110:E110"/>
-    <mergeCell ref="A111:E111"/>
-    <mergeCell ref="A112:E112"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A105:E105"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A107:E107"/>
-    <mergeCell ref="A108:E108"/>
-    <mergeCell ref="A109:E109"/>
-    <mergeCell ref="A100:E100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="A102:E102"/>
-    <mergeCell ref="A103:E103"/>
-    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A85:E85"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="B8:G10"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="B73:G75"/>
     <mergeCell ref="A97:E97"/>
     <mergeCell ref="A98:E98"/>
     <mergeCell ref="A99:E99"/>
@@ -3082,18 +3079,24 @@
     <mergeCell ref="A90:E90"/>
     <mergeCell ref="A91:E91"/>
     <mergeCell ref="A95:E95"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="B8:G10"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="B73:G75"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="A101:E101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="A103:E103"/>
+    <mergeCell ref="A104:E104"/>
+    <mergeCell ref="A105:E105"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A107:E107"/>
+    <mergeCell ref="A108:E108"/>
+    <mergeCell ref="A109:E109"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="A117:E117"/>
+    <mergeCell ref="A110:E110"/>
+    <mergeCell ref="A111:E111"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A113:E113"/>
+    <mergeCell ref="A114:E114"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="57" fitToHeight="0" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
